--- a/links.xlsx
+++ b/links.xlsx
@@ -8,18 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/easyo/Desktop/oeasy/oeasypython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE86D087-E686-1D4F-82C6-A64ACDFB61CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6C8C37-A7F6-F34F-AD8E-31879F8BD784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1620" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{3BF5CFE5-2482-BA45-A1DA-B3DE576DDE57}"/>
+    <workbookView xWindow="5080" yWindow="1620" windowWidth="28240" windowHeight="17440" activeTab="6" xr2:uid="{3BF5CFE5-2482-BA45-A1DA-B3DE576DDE57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="test2" localSheetId="0">Sheet1!$D$7:$D$475</definedName>
     <definedName name="test2" localSheetId="1">Sheet3!$A$1:$A$204</definedName>
+    <definedName name="test2" localSheetId="4">Sheet4!$A$1:$A$18</definedName>
+    <definedName name="test2" localSheetId="5">Sheet6!$A$1:$A$66</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,11 +52,26 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="3" xr16:uid="{18B55B24-14AE-DC41-AA2E-327F476C2693}" name="test22" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/easyo/Desktop/oeasy/oeasypostgres/test2.csv">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{7A1E0953-0FF8-5545-8FAD-F648D6622F9B}" name="test23" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/easyo/Desktop/oeasy/oeasylinux/test2.csv">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="876">
   <si>
     <t>001-87321-先跑起来.sy.md</t>
   </si>
@@ -2126,6 +2147,583 @@
   <si>
     <t xml:space="preserve">    -  requests和lxml</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-48573-行业分析.sy.md</t>
+  </si>
+  <si>
+    <t>02-473339-安装卸载.sy.md</t>
+  </si>
+  <si>
+    <t>03-48572-数据库(DataBase)的管理.sy.md</t>
+  </si>
+  <si>
+    <t>04-472863-数据表(Table)的管理.sy.md</t>
+  </si>
+  <si>
+    <t>05-472864-查询数据SELECT.sy.md</t>
+  </si>
+  <si>
+    <t>06-473343-插入数据记录INSERT.sy.md</t>
+  </si>
+  <si>
+    <t>07-473348-删除数据记录DELETE.sy.md</t>
+  </si>
+  <si>
+    <t>08-473349-修改数据记录UPDATE.sy.md</t>
+  </si>
+  <si>
+    <t>09-473350-基本操作总结.sy.md</t>
+  </si>
+  <si>
+    <t>10-473351-执行sql语句 i.sy.md</t>
+  </si>
+  <si>
+    <t>11-527307-在psql中编辑并运行sql语句.sy.md</t>
+  </si>
+  <si>
+    <t>12-529385-在vim中执行外部命令psql.sy.md</t>
+  </si>
+  <si>
+    <t>13-529399-数据库的转储备份pg_dump.sy.md</t>
+  </si>
+  <si>
+    <t>14-529584-数据库的还原.sy.md</t>
+  </si>
+  <si>
+    <t>15-529598-数据导出.sy.md</t>
+  </si>
+  <si>
+    <t>16-529612-数据导入.sy.md</t>
+  </si>
+  <si>
+    <t>17-529614-备份还原、导入导出总结.sy.md</t>
+  </si>
+  <si>
+    <t>- [Gitee地址](https://gitee.com/overmind1980/oeasypostgres)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- [Github地址](https://github.com/overmind1980/oeasypostgres)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- [蓝桥实验楼 邀请码:CHD6PJZ1](https://www.lanqiao.cn/courses/2782)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 从零开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    -  初步接触</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [行业分析](./md/01-48573-行业分析.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [安装卸载](./md/02-473339-安装卸载.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [数据库(DataBase)的管理](./md/03-48572-数据库(DataBase)的管理.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [数据表(Table)的管理](./md/04-472863-数据表(Table)的管理.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [查询数据SELECT](./md/05-472864-查询数据SELECT.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [插入数据记录INSERT](./md/06-473343-插入数据记录INSERT.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [删除数据记录DELETE](./md/07-473348-删除数据记录DELETE.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [修改数据记录UPDATE](./md/08-473349-修改数据记录UPDATE.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [基本操作总结](./md/09-473350-基本操作总结.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [执行sql语句 i](./md/10-473351-执行sql语句 i.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [在psql中编辑并运行sql语句](./md/11-527307-在psql中编辑并运行sql语句.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [在vim中执行外部命令psql](./md/12-529385-在vim中执行外部命令psql.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [数据库的转储备份pg_dump](./md/13-529399-数据库的转储备份pg_dump.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [数据库的还原](./md/14-529584-数据库的还原.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [数据导出](./md/15-529598-数据导出.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [数据导入](./md/16-529612-数据导入.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [备份还原、导入导出总结](./md/17-529614-备份还原、导入导出总结.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 备份还原、导入导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-45529-000101 什么是内核 uname.sy.md</t>
+  </si>
+  <si>
+    <t>02-45530-000102 什么是发行版 distro.sy.md</t>
+  </si>
+  <si>
+    <t>03-45531-000103 我在哪 pwd.sy.md</t>
+  </si>
+  <si>
+    <t>04-45532-000104 灵魂之问 whatis.sy.md</t>
+  </si>
+  <si>
+    <t>05-45533-000105 详查手册 man.sy.md</t>
+  </si>
+  <si>
+    <t>06-45534-000106 这儿都有啥 ls.sy.md</t>
+  </si>
+  <si>
+    <t>07-45535-000107 那啥在哪 whereis.sy.md</t>
+  </si>
+  <si>
+    <t>08-45536-000108 到底哪个 which.sy.md</t>
+  </si>
+  <si>
+    <t>09-45537-000109 清屏 clear.sy.md</t>
+  </si>
+  <si>
+    <t>10-48362-000110 命令行总结 summary.sy.md</t>
+  </si>
+  <si>
+    <t>11-45538-000201 持续输出 yes.sy.md</t>
+  </si>
+  <si>
+    <t>12-45541-000202 软件包管理 apt.sy.md</t>
+  </si>
+  <si>
+    <t>13-45542-000203 标志 linuxlogo.sy.md</t>
+  </si>
+  <si>
+    <t>14-45568-000204 字符画 figlet.sy.md</t>
+  </si>
+  <si>
+    <t>15-45569-000205 风格文字 toilet.sy.md</t>
+  </si>
+  <si>
+    <t>16-45571-000206 蒸汽机车 sl.sy.md</t>
+  </si>
+  <si>
+    <t>17-45574-000207 黑客帝国 cmatrix.sy.md</t>
+  </si>
+  <si>
+    <t>18-45572-000208 满屏乱码 bb.sy.md</t>
+  </si>
+  <si>
+    <t>19-45570-000209 装酷屏幕 hollywood.sy.md</t>
+  </si>
+  <si>
+    <t>20-45581-000210 应用管理 aptitude.sy.md</t>
+  </si>
+  <si>
+    <t>21-45575-000211 牛说 cowsay.sy.md</t>
+  </si>
+  <si>
+    <t>22-45578-000212 管道 pipe.sy.md</t>
+  </si>
+  <si>
+    <t>23-45576-000213 中文输入 fcitx.sy.md</t>
+  </si>
+  <si>
+    <t>24-48588-000214 字符图 asciiview.sy.md</t>
+  </si>
+  <si>
+    <t>25-48590-000215 随机笑话 fortune.sy.md</t>
+  </si>
+  <si>
+    <t>26-45580-000216 中文诗词 fortune-zh.sy.md</t>
+  </si>
+  <si>
+    <t>27-209842-000217 分屏工具 tmux.sy.md</t>
+  </si>
+  <si>
+    <t>28-45583-000301 桌面宠物 pet.sy.md</t>
+  </si>
+  <si>
+    <t>29-45586-000302 火狐 firefox.sy.md</t>
+  </si>
+  <si>
+    <t>30-45587-000303 文件管理器 nautilus.sy.md</t>
+  </si>
+  <si>
+    <t>31-45579-000304 用户界面 xfce.sy.md</t>
+  </si>
+  <si>
+    <t>32-45566-000305 总结 Summary.sy.md</t>
+  </si>
+  <si>
+    <t>33-199464-000218_数据库_postgres.sy.md</t>
+  </si>
+  <si>
+    <t>34-192426-nginx.sy.md</t>
+  </si>
+  <si>
+    <t>35-260422-apache.sy.md</t>
+  </si>
+  <si>
+    <t>36-199465-tomcat源起.sy.md</t>
+  </si>
+  <si>
+    <t>37-260421-tomcat结构.sy.md</t>
+  </si>
+  <si>
+    <t>38-526680-徒手建立应用.sy.md</t>
+  </si>
+  <si>
+    <t>39-260423-搭建开发环境.sy.md</t>
+  </si>
+  <si>
+    <t>40-265117-调试模式_debug_mode_log日志.sy.md</t>
+  </si>
+  <si>
+    <t>41-261125-前端和后端.sy.md</t>
+  </si>
+  <si>
+    <t>42-485593-双层架构(2-tier).sy.md</t>
+  </si>
+  <si>
+    <t>43-485612-请求和响应.sy.md</t>
+  </si>
+  <si>
+    <t>44-495450-请求参数.sy.md</t>
+  </si>
+  <si>
+    <t>45-498649-处理异常.sy.md</t>
+  </si>
+  <si>
+    <t>46-200308-连接postgresql数据库引擎.sy.md</t>
+  </si>
+  <si>
+    <t>47-527010-通过驱动访问postgres数据库引擎.sy.md</t>
+  </si>
+  <si>
+    <t>48-527011-JDBC理解.sy.md</t>
+  </si>
+  <si>
+    <t>49-263205-通过动态页面访问postgres数据库引擎.sy.md</t>
+  </si>
+  <si>
+    <t>50-263206-自动加载更新的class(tomcat无需重启).sy.md</t>
+  </si>
+  <si>
+    <t>51-263207-修改表结构.sy.md</t>
+  </si>
+  <si>
+    <t>52-265977-管理约束条件CONSTRAINT.sy.md</t>
+  </si>
+  <si>
+    <t>53-527013-使用jdbc向数据库插入数据.sy.md</t>
+  </si>
+  <si>
+    <t>54-527012-使用servlet向数据库插入数据.sy.md</t>
+  </si>
+  <si>
+    <t>55-527130-响应重定向.sy.md</t>
+  </si>
+  <si>
+    <t>56-264932-使用网页提交数据_文本框post提交表单.sy.md</t>
+  </si>
+  <si>
+    <t>57-266982-使用网页插入数据库.sy.md</t>
+  </si>
+  <si>
+    <t>58-263308-先查再插入.sy.md</t>
+  </si>
+  <si>
+    <t>59-271131-文本框前端验证.sy.md</t>
+  </si>
+  <si>
+    <t>60-263208-密码二次输入验证复杂性.sy.md</t>
+  </si>
+  <si>
+    <t>61-483456-封装数据库连接.sy.md</t>
+  </si>
+  <si>
+    <t>62-483477-PrepareStatement准备语句.sy.md</t>
+  </si>
+  <si>
+    <t>63-484450-JNDI.sy.md</t>
+  </si>
+  <si>
+    <t>64-485586-JDBC数据库连接池.sy.md</t>
+  </si>
+  <si>
+    <t>65-497989-准备删除.sy.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 最初探索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 终端应用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 图形界面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 文件和文件夹基本操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 用户</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 用户组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - ssh远程登录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [远程登录%20ssh](./md/370-210191-000223%20远程登录%20ssh.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [Oh-My-Zsh](./md/380-250350-000223%20Oh-My-Zsh.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [远程拷贝%20scp](./md/360-210190-000222%20远程拷贝%20scp.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - postgresql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 静态</t>
+  </si>
+  <si>
+    <t>- 用户和用户组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 数据库服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- web服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [nginx](./md/34-192426-nginx.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [apache](./md/35-260422-apache.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [tomcat结构](./md/37-260421-tomcat结构.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [徒手建立应用](./md/38-526680-徒手建立应用.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [搭建开发环境](./md/39-260423-搭建开发环境.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [调试模式_debug_mode_log日志](./md/40-265117-调试模式_debug_mode_log日志.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [前端和后端](./md/41-261125-前端和后端.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [双层架构(2-tier)](./md/42-485593-双层架构(2-tier).sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [请求和响应](./md/43-485612-请求和响应.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [请求参数](./md/44-495450-请求参数.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [处理异常](./md/45-498649-处理异常.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [连接postgresql数据库引擎](./md/46-200308-连接postgresql数据库引擎.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [通过驱动访问postgres数据库引擎](./md/47-527010-通过驱动访问postgres数据库引擎.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [JDBC理解](./md/48-527011-JDBC理解.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [通过动态页面访问postgres数据库引擎](./md/49-263205-通过动态页面访问postgres数据库引擎.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [自动加载更新的class(tomcat无需重启)](./md/50-263206-自动加载更新的class(tomcat无需重启).sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [修改表结构](./md/51-263207-修改表结构.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [管理约束条件CONSTRAINT](./md/52-265977-管理约束条件CONSTRAINT.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [使用jdbc向数据库插入数据](./md/53-527013-使用jdbc向数据库插入数据.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [使用servlet向数据库插入数据](./md/54-527012-使用servlet向数据库插入数据.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [响应重定向](./md/55-527130-响应重定向.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [使用网页提交数据_文本框post提交表单](./md/56-264932-使用网页提交数据_文本框post提交表单.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [使用网页插入数据库](./md/57-266982-使用网页插入数据库.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [先查再插入](./md/58-263308-先查再插入.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [文本框前端验证](./md/59-271131-文本框前端验证.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [密码二次输入验证复杂性](./md/60-263208-密码二次输入验证复杂性.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [封装数据库连接](./md/61-483456-封装数据库连接.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [PrepareStatement准备语句](./md/62-483477-PrepareStatement准备语句.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [JNDI](./md/63-484450-JNDI.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [JDBC数据库连接池](./md/64-485586-JDBC数据库连接池.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [准备删除](./md/65-497989-准备删除.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -  动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- [Github地址](https://github.com/overmind1980/oeasylinux)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- [Gitee地址](https://gitee.com/overmind1980/oeasylinux)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- [蓝桥实验楼](https://www.lanqiao.cn/courses/2712)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000101 什么是内核 uname](./md/01-45529-000101 什么是内核 uname.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000102 什么是发行版 distro](./md/02-45530-000102 什么是发行版 distro.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000103 我在哪 pwd](./md/03-45531-000103 我在哪 pwd.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000104 灵魂之问 whatis](./md/04-45532-000104 灵魂之问 whatis.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000105 详查手册 man](./md/05-45533-000105 详查手册 man.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000106 这儿都有啥 ls](./md/06-45534-000106 这儿都有啥 ls.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000107 那啥在哪 whereis](./md/07-45535-000107 那啥在哪 whereis.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000108 到底哪个 which](./md/08-45536-000108 到底哪个 which.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000109 清屏 clear](./md/09-45537-000109 清屏 clear.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000110 命令行总结 summary](./md/10-48362-000110 命令行总结 summary.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000201 持续输出 yes](./md/11-45538-000201 持续输出 yes.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000202 软件包管理 apt](./md/12-45541-000202 软件包管理 apt.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000203 标志 linuxlogo](./md/13-45542-000203 标志 linuxlogo.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000204 字符画 figlet](./md/14-45568-000204 字符画 figlet.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000205 风格文字 toilet](./md/15-45569-000205 风格文字 toilet.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000206 蒸汽机车 sl](./md/16-45571-000206 蒸汽机车 sl.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000207 黑客帝国 cmatrix](./md/17-45574-000207 黑客帝国 cmatrix.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000208 满屏乱码 bb](./md/18-45572-000208 满屏乱码 bb.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000209 装酷屏幕 hollywood](./md/19-45570-000209 装酷屏幕 hollywood.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000210 应用管理 aptitude](./md/20-45581-000210 应用管理 aptitude.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000211 牛说 cowsay](./md/21-45575-000211 牛说 cowsay.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000212 管道 pipe](./md/22-45578-000212 管道 pipe.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000213 中文输入 fcitx](./md/23-45576-000213 中文输入 fcitx.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000214 字符图 asciiview](./md/24-48588-000214 字符图 asciiview.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000215 随机笑话 fortune](./md/25-48590-000215 随机笑话 fortune.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000216 中文诗词 fortune-zh](./md/26-45580-000216 中文诗词 fortune-zh.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000217 分屏工具 tmux](./md/27-209842-000217 分屏工具 tmux.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000301 桌面宠物 pet](./md/28-45583-000301 桌面宠物 pet.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000302 火狐 firefox](./md/29-45586-000302 火狐 firefox.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000303 文件管理器 nautilus](./md/30-45587-000303 文件管理器 nautilus.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000304 用户界面 xfce](./md/31-45579-000304 用户界面 xfce.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000305 总结 Summary](./md/32-45566-000305 总结 Summary.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [000218_数据库_postgres](./md/33-199464-000218_数据库_postgres.sy.md)</t>
   </si>
 </sst>
 </file>
@@ -2201,6 +2799,14 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test2" connectionId="2" xr16:uid="{3222702D-55D4-AB44-8282-DAAC40373E30}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test2" connectionId="3" xr16:uid="{E98A52A9-0BAF-844A-95A4-A6438012D43D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test2" connectionId="4" xr16:uid="{85E1C833-767F-4B4D-AC89-607E8C4E99D9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16111,7 +16717,7 @@
   <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G203"/>
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -22046,8 +22652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FBE489-93E9-3E4A-9F91-9919327CF7A6}">
   <dimension ref="A1:A219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23146,4 +23752,3062 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817A79E4-1AC1-3E43-861F-1B68046BAB95}">
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView zoomScale="317" zoomScaleNormal="317" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7995518A-9707-5C47-9072-3A4795B673EF}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="45.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B1">
+        <f>FIND("-",A1,6)</f>
+        <v>9</v>
+      </c>
+      <c r="C1">
+        <f>FIND(".sy.md",A1)</f>
+        <v>14</v>
+      </c>
+      <c r="D1">
+        <f>LEN(A1)</f>
+        <v>19</v>
+      </c>
+      <c r="E1" t="str">
+        <f>LEFT(A1,D1-6)</f>
+        <v>01-48573-行业分析</v>
+      </c>
+      <c r="F1" t="str">
+        <f>RIGHT(E1,LEN(E1)-B1)</f>
+        <v>行业分析</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"        -" &amp; " [" &amp; F1 &amp;"](./md/"&amp;A1&amp;")"</f>
+        <v xml:space="preserve">        - [行业分析](./md/01-48573-行业分析.sy.md)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B18" si="0">FIND("-",A2,6)</f>
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C18" si="1">FIND(".sy.md",A2)</f>
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D18" si="2">LEN(A2)</f>
+        <v>20</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E18" si="3">LEFT(A2,D2-6)</f>
+        <v>02-473339-安装卸载</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F18" si="4">RIGHT(E2,LEN(E2)-B2)</f>
+        <v>安装卸载</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G18" si="5">"        -" &amp; " [" &amp; F2 &amp;"](./md/"&amp;A2&amp;")"</f>
+        <v xml:space="preserve">        - [安装卸载](./md/02-473339-安装卸载.sy.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>690</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="3"/>
+        <v>03-48572-数据库(DataBase)的管理</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="4"/>
+        <v>数据库(DataBase)的管理</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [数据库(DataBase)的管理](./md/03-48572-数据库(DataBase)的管理.sy.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v>04-472863-数据表(Table)的管理</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="4"/>
+        <v>数据表(Table)的管理</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [数据表(Table)的管理](./md/04-472863-数据表(Table)的管理.sy.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v>05-472864-查询数据SELECT</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="4"/>
+        <v>查询数据SELECT</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [查询数据SELECT](./md/05-472864-查询数据SELECT.sy.md)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>693</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v>06-473343-插入数据记录INSERT</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="4"/>
+        <v>插入数据记录INSERT</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [插入数据记录INSERT](./md/06-473343-插入数据记录INSERT.sy.md)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>694</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v>07-473348-删除数据记录DELETE</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="4"/>
+        <v>删除数据记录DELETE</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [删除数据记录DELETE](./md/07-473348-删除数据记录DELETE.sy.md)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>695</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="3"/>
+        <v>08-473349-修改数据记录UPDATE</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="4"/>
+        <v>修改数据记录UPDATE</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [修改数据记录UPDATE](./md/08-473349-修改数据记录UPDATE.sy.md)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>696</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="3"/>
+        <v>09-473350-基本操作总结</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="4"/>
+        <v>基本操作总结</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [基本操作总结](./md/09-473350-基本操作总结.sy.md)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>697</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="3"/>
+        <v>10-473351-执行sql语句 i</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="4"/>
+        <v>执行sql语句 i</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [执行sql语句 i](./md/10-473351-执行sql语句 i.sy.md)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>698</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="3"/>
+        <v>11-527307-在psql中编辑并运行sql语句</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="4"/>
+        <v>在psql中编辑并运行sql语句</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [在psql中编辑并运行sql语句](./md/11-527307-在psql中编辑并运行sql语句.sy.md)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>699</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="3"/>
+        <v>12-529385-在vim中执行外部命令psql</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="4"/>
+        <v>在vim中执行外部命令psql</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [在vim中执行外部命令psql](./md/12-529385-在vim中执行外部命令psql.sy.md)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>700</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="3"/>
+        <v>13-529399-数据库的转储备份pg_dump</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="4"/>
+        <v>数据库的转储备份pg_dump</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [数据库的转储备份pg_dump](./md/13-529399-数据库的转储备份pg_dump.sy.md)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>701</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="3"/>
+        <v>14-529584-数据库的还原</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="4"/>
+        <v>数据库的还原</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [数据库的还原](./md/14-529584-数据库的还原.sy.md)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>702</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="3"/>
+        <v>15-529598-数据导出</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="4"/>
+        <v>数据导出</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [数据导出](./md/15-529598-数据导出.sy.md)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>703</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="3"/>
+        <v>16-529612-数据导入</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="4"/>
+        <v>数据导入</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [数据导入](./md/16-529612-数据导入.sy.md)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>704</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="3"/>
+        <v>17-529614-备份还原、导入导出总结</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="4"/>
+        <v>备份还原、导入导出总结</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [备份还原、导入导出总结](./md/17-529614-备份还原、导入导出总结.sy.md)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>464</v>
+      </c>
+      <c r="B18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C18" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="3"/>
+        <v>REA</v>
+      </c>
+      <c r="F18" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G18" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D834EE9-B280-DF43-91DD-2AC3A61C3963}">
+  <dimension ref="A1:G66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G134"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="57.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B1">
+        <f t="shared" ref="B1:B21" si="0">FIND("-",A1,6)</f>
+        <v>9</v>
+      </c>
+      <c r="C1">
+        <f t="shared" ref="C1:C21" si="1">FIND(".sy.md",A1)</f>
+        <v>28</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:D21" si="2">LEN(A1)</f>
+        <v>33</v>
+      </c>
+      <c r="E1" t="str">
+        <f t="shared" ref="E1:E21" si="3">LEFT(A1,D1-6)</f>
+        <v>01-45529-000101 什么是内核 uname</v>
+      </c>
+      <c r="F1" t="str">
+        <f t="shared" ref="F1:F21" si="4">RIGHT(E1,LEN(E1)-B1)</f>
+        <v>000101 什么是内核 uname</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G21" si="5">"        -" &amp; " [" &amp; F1 &amp;"](./md/"&amp;A1&amp;")"</f>
+        <v xml:space="preserve">        - [000101 什么是内核 uname](./md/01-45529-000101 什么是内核 uname.sy.md)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" si="3"/>
+        <v>02-45530-000102 什么是发行版 distro</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" si="4"/>
+        <v>000102 什么是发行版 distro</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000102 什么是发行版 distro](./md/02-45530-000102 什么是发行版 distro.sy.md)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>730</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="3"/>
+        <v>03-45531-000103 我在哪 pwd</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="4"/>
+        <v>000103 我在哪 pwd</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000103 我在哪 pwd](./md/03-45531-000103 我在哪 pwd.sy.md)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>731</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v>04-45532-000104 灵魂之问 whatis</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="4"/>
+        <v>000104 灵魂之问 whatis</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000104 灵魂之问 whatis](./md/04-45532-000104 灵魂之问 whatis.sy.md)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v>05-45533-000105 详查手册 man</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="4"/>
+        <v>000105 详查手册 man</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000105 详查手册 man](./md/05-45533-000105 详查手册 man.sy.md)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>733</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v>06-45534-000106 这儿都有啥 ls</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="4"/>
+        <v>000106 这儿都有啥 ls</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000106 这儿都有啥 ls](./md/06-45534-000106 这儿都有啥 ls.sy.md)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>734</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v>07-45535-000107 那啥在哪 whereis</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="4"/>
+        <v>000107 那啥在哪 whereis</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000107 那啥在哪 whereis](./md/07-45535-000107 那啥在哪 whereis.sy.md)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>735</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="3"/>
+        <v>08-45536-000108 到底哪个 which</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="4"/>
+        <v>000108 到底哪个 which</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000108 到底哪个 which](./md/08-45536-000108 到底哪个 which.sy.md)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>736</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="3"/>
+        <v>09-45537-000109 清屏 clear</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="4"/>
+        <v>000109 清屏 clear</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000109 清屏 clear](./md/09-45537-000109 清屏 clear.sy.md)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>737</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="3"/>
+        <v>10-48362-000110 命令行总结 summary</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="4"/>
+        <v>000110 命令行总结 summary</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000110 命令行总结 summary](./md/10-48362-000110 命令行总结 summary.sy.md)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>738</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="3"/>
+        <v>11-45538-000201 持续输出 yes</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="4"/>
+        <v>000201 持续输出 yes</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000201 持续输出 yes](./md/11-45538-000201 持续输出 yes.sy.md)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>739</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="3"/>
+        <v>12-45541-000202 软件包管理 apt</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="4"/>
+        <v>000202 软件包管理 apt</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000202 软件包管理 apt](./md/12-45541-000202 软件包管理 apt.sy.md)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>740</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="3"/>
+        <v>13-45542-000203 标志 linuxlogo</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="4"/>
+        <v>000203 标志 linuxlogo</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000203 标志 linuxlogo](./md/13-45542-000203 标志 linuxlogo.sy.md)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>741</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="3"/>
+        <v>14-45568-000204 字符画 figlet</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="4"/>
+        <v>000204 字符画 figlet</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000204 字符画 figlet](./md/14-45568-000204 字符画 figlet.sy.md)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>742</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="3"/>
+        <v>15-45569-000205 风格文字 toilet</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="4"/>
+        <v>000205 风格文字 toilet</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000205 风格文字 toilet](./md/15-45569-000205 风格文字 toilet.sy.md)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>743</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="3"/>
+        <v>16-45571-000206 蒸汽机车 sl</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="4"/>
+        <v>000206 蒸汽机车 sl</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000206 蒸汽机车 sl](./md/16-45571-000206 蒸汽机车 sl.sy.md)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>744</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="3"/>
+        <v>17-45574-000207 黑客帝国 cmatrix</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="4"/>
+        <v>000207 黑客帝国 cmatrix</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000207 黑客帝国 cmatrix](./md/17-45574-000207 黑客帝国 cmatrix.sy.md)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>745</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="3"/>
+        <v>18-45572-000208 满屏乱码 bb</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="4"/>
+        <v>000208 满屏乱码 bb</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000208 满屏乱码 bb](./md/18-45572-000208 满屏乱码 bb.sy.md)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>746</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="3"/>
+        <v>19-45570-000209 装酷屏幕 hollywood</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="4"/>
+        <v>000209 装酷屏幕 hollywood</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000209 装酷屏幕 hollywood](./md/19-45570-000209 装酷屏幕 hollywood.sy.md)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>747</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="3"/>
+        <v>20-45581-000210 应用管理 aptitude</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="4"/>
+        <v>000210 应用管理 aptitude</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000210 应用管理 aptitude](./md/20-45581-000210 应用管理 aptitude.sy.md)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>748</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="3"/>
+        <v>21-45575-000211 牛说 cowsay</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="4"/>
+        <v>000211 牛说 cowsay</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">        - [000211 牛说 cowsay](./md/21-45575-000211 牛说 cowsay.sy.md)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>749</v>
+      </c>
+      <c r="B22">
+        <f>FIND("-",A22,6)</f>
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <f>FIND(".sy.md",A22)</f>
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <f>LEN(A22)</f>
+        <v>29</v>
+      </c>
+      <c r="E22" t="str">
+        <f>LEFT(A22,D22-6)</f>
+        <v>22-45578-000212 管道 pipe</v>
+      </c>
+      <c r="F22" t="str">
+        <f>RIGHT(E22,LEN(E22)-B22)</f>
+        <v>000212 管道 pipe</v>
+      </c>
+      <c r="G22" t="str">
+        <f>"        -" &amp; " [" &amp; F22 &amp;"](./md/"&amp;A22&amp;")"</f>
+        <v xml:space="preserve">        - [000212 管道 pipe](./md/22-45578-000212 管道 pipe.sy.md)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>750</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:B66" si="6">FIND("-",A23,6)</f>
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:C66" si="7">FIND(".sy.md",A23)</f>
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D66" si="8">LEN(A23)</f>
+        <v>32</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" ref="E23:E66" si="9">LEFT(A23,D23-6)</f>
+        <v>23-45576-000213 中文输入 fcitx</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" ref="F23:F66" si="10">RIGHT(E23,LEN(E23)-B23)</f>
+        <v>000213 中文输入 fcitx</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" ref="G23:G66" si="11">"        -" &amp; " [" &amp; F23 &amp;"](./md/"&amp;A23&amp;")"</f>
+        <v xml:space="preserve">        - [000213 中文输入 fcitx](./md/23-45576-000213 中文输入 fcitx.sy.md)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>751</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="9"/>
+        <v>24-48588-000214 字符图 asciiview</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="10"/>
+        <v>000214 字符图 asciiview</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [000214 字符图 asciiview](./md/24-48588-000214 字符图 asciiview.sy.md)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>752</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="9"/>
+        <v>25-48590-000215 随机笑话 fortune</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="10"/>
+        <v>000215 随机笑话 fortune</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [000215 随机笑话 fortune](./md/25-48590-000215 随机笑话 fortune.sy.md)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>753</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="9"/>
+        <v>26-45580-000216 中文诗词 fortune-zh</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="10"/>
+        <v>000216 中文诗词 fortune-zh</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [000216 中文诗词 fortune-zh](./md/26-45580-000216 中文诗词 fortune-zh.sy.md)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>754</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="9"/>
+        <v>27-209842-000217 分屏工具 tmux</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="10"/>
+        <v>000217 分屏工具 tmux</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [000217 分屏工具 tmux](./md/27-209842-000217 分屏工具 tmux.sy.md)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>755</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="9"/>
+        <v>28-45583-000301 桌面宠物 pet</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="10"/>
+        <v>000301 桌面宠物 pet</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [000301 桌面宠物 pet](./md/28-45583-000301 桌面宠物 pet.sy.md)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>756</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="9"/>
+        <v>29-45586-000302 火狐 firefox</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="10"/>
+        <v>000302 火狐 firefox</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [000302 火狐 firefox](./md/29-45586-000302 火狐 firefox.sy.md)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>757</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="9"/>
+        <v>30-45587-000303 文件管理器 nautilus</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="10"/>
+        <v>000303 文件管理器 nautilus</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [000303 文件管理器 nautilus](./md/30-45587-000303 文件管理器 nautilus.sy.md)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>758</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="9"/>
+        <v>31-45579-000304 用户界面 xfce</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="10"/>
+        <v>000304 用户界面 xfce</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [000304 用户界面 xfce](./md/31-45579-000304 用户界面 xfce.sy.md)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>759</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="9"/>
+        <v>32-45566-000305 总结 Summary</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="10"/>
+        <v>000305 总结 Summary</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [000305 总结 Summary](./md/32-45566-000305 总结 Summary.sy.md)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>760</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="9"/>
+        <v>33-199464-000218_数据库_postgres</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="10"/>
+        <v>000218_数据库_postgres</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [000218_数据库_postgres](./md/33-199464-000218_数据库_postgres.sy.md)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>761</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="9"/>
+        <v>34-192426-nginx</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="10"/>
+        <v>nginx</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [nginx](./md/34-192426-nginx.sy.md)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>762</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="9"/>
+        <v>35-260422-apache</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="10"/>
+        <v>apache</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [apache](./md/35-260422-apache.sy.md)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>763</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="9"/>
+        <v>36-199465-tomcat源起</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="10"/>
+        <v>tomcat源起</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [tomcat源起](./md/36-199465-tomcat源起.sy.md)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>764</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="9"/>
+        <v>37-260421-tomcat结构</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="10"/>
+        <v>tomcat结构</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [tomcat结构](./md/37-260421-tomcat结构.sy.md)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>765</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="9"/>
+        <v>38-526680-徒手建立应用</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="10"/>
+        <v>徒手建立应用</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [徒手建立应用](./md/38-526680-徒手建立应用.sy.md)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>766</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="9"/>
+        <v>39-260423-搭建开发环境</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="10"/>
+        <v>搭建开发环境</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [搭建开发环境](./md/39-260423-搭建开发环境.sy.md)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>767</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="9"/>
+        <v>40-265117-调试模式_debug_mode_log日志</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="10"/>
+        <v>调试模式_debug_mode_log日志</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [调试模式_debug_mode_log日志](./md/40-265117-调试模式_debug_mode_log日志.sy.md)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>768</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="9"/>
+        <v>41-261125-前端和后端</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="10"/>
+        <v>前端和后端</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [前端和后端](./md/41-261125-前端和后端.sy.md)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>769</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="9"/>
+        <v>42-485593-双层架构(2-tier)</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="10"/>
+        <v>双层架构(2-tier)</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [双层架构(2-tier)](./md/42-485593-双层架构(2-tier).sy.md)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>770</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="9"/>
+        <v>43-485612-请求和响应</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="10"/>
+        <v>请求和响应</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [请求和响应](./md/43-485612-请求和响应.sy.md)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>771</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="9"/>
+        <v>44-495450-请求参数</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="10"/>
+        <v>请求参数</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [请求参数](./md/44-495450-请求参数.sy.md)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>772</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="9"/>
+        <v>45-498649-处理异常</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="10"/>
+        <v>处理异常</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [处理异常](./md/45-498649-处理异常.sy.md)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>773</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="9"/>
+        <v>46-200308-连接postgresql数据库引擎</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="10"/>
+        <v>连接postgresql数据库引擎</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [连接postgresql数据库引擎](./md/46-200308-连接postgresql数据库引擎.sy.md)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>774</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="9"/>
+        <v>47-527010-通过驱动访问postgres数据库引擎</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="10"/>
+        <v>通过驱动访问postgres数据库引擎</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [通过驱动访问postgres数据库引擎](./md/47-527010-通过驱动访问postgres数据库引擎.sy.md)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>775</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="9"/>
+        <v>48-527011-JDBC理解</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="10"/>
+        <v>JDBC理解</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [JDBC理解](./md/48-527011-JDBC理解.sy.md)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>776</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="9"/>
+        <v>49-263205-通过动态页面访问postgres数据库引擎</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="10"/>
+        <v>通过动态页面访问postgres数据库引擎</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [通过动态页面访问postgres数据库引擎](./md/49-263205-通过动态页面访问postgres数据库引擎.sy.md)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>777</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="9"/>
+        <v>50-263206-自动加载更新的class(tomcat无需重启)</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="10"/>
+        <v>自动加载更新的class(tomcat无需重启)</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [自动加载更新的class(tomcat无需重启)](./md/50-263206-自动加载更新的class(tomcat无需重启).sy.md)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>778</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="9"/>
+        <v>51-263207-修改表结构</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="10"/>
+        <v>修改表结构</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [修改表结构](./md/51-263207-修改表结构.sy.md)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>779</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="9"/>
+        <v>52-265977-管理约束条件CONSTRAINT</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="10"/>
+        <v>管理约束条件CONSTRAINT</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [管理约束条件CONSTRAINT](./md/52-265977-管理约束条件CONSTRAINT.sy.md)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>780</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="9"/>
+        <v>53-527013-使用jdbc向数据库插入数据</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="10"/>
+        <v>使用jdbc向数据库插入数据</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [使用jdbc向数据库插入数据](./md/53-527013-使用jdbc向数据库插入数据.sy.md)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>781</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="9"/>
+        <v>54-527012-使用servlet向数据库插入数据</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="10"/>
+        <v>使用servlet向数据库插入数据</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [使用servlet向数据库插入数据](./md/54-527012-使用servlet向数据库插入数据.sy.md)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>782</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="9"/>
+        <v>55-527130-响应重定向</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="10"/>
+        <v>响应重定向</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [响应重定向](./md/55-527130-响应重定向.sy.md)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>783</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="9"/>
+        <v>56-264932-使用网页提交数据_文本框post提交表单</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="10"/>
+        <v>使用网页提交数据_文本框post提交表单</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [使用网页提交数据_文本框post提交表单](./md/56-264932-使用网页提交数据_文本框post提交表单.sy.md)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>784</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="9"/>
+        <v>57-266982-使用网页插入数据库</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="10"/>
+        <v>使用网页插入数据库</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [使用网页插入数据库](./md/57-266982-使用网页插入数据库.sy.md)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>785</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="9"/>
+        <v>58-263308-先查再插入</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="10"/>
+        <v>先查再插入</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [先查再插入](./md/58-263308-先查再插入.sy.md)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>786</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="9"/>
+        <v>59-271131-文本框前端验证</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="10"/>
+        <v>文本框前端验证</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [文本框前端验证](./md/59-271131-文本框前端验证.sy.md)</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>787</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="9"/>
+        <v>60-263208-密码二次输入验证复杂性</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="10"/>
+        <v>密码二次输入验证复杂性</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [密码二次输入验证复杂性](./md/60-263208-密码二次输入验证复杂性.sy.md)</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>788</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="9"/>
+        <v>61-483456-封装数据库连接</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="10"/>
+        <v>封装数据库连接</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [封装数据库连接](./md/61-483456-封装数据库连接.sy.md)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>789</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="9"/>
+        <v>62-483477-PrepareStatement准备语句</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="10"/>
+        <v>PrepareStatement准备语句</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [PrepareStatement准备语句](./md/62-483477-PrepareStatement准备语句.sy.md)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>790</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="9"/>
+        <v>63-484450-JNDI</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="10"/>
+        <v>JNDI</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [JNDI](./md/63-484450-JNDI.sy.md)</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>791</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="9"/>
+        <v>64-485586-JDBC数据库连接池</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="10"/>
+        <v>JDBC数据库连接池</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [JDBC数据库连接池](./md/64-485586-JDBC数据库连接池.sy.md)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>792</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="9"/>
+        <v>65-497989-准备删除</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="10"/>
+        <v>准备删除</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        - [准备删除](./md/65-497989-准备删除.sy.md)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>464</v>
+      </c>
+      <c r="B66" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C66" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="9"/>
+        <v>REA</v>
+      </c>
+      <c r="F66" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G66" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9057B1A-82C1-A04C-86B9-1125F591AAAD}">
+  <dimension ref="A1:H85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="239" zoomScaleNormal="239" workbookViewId="0">
+      <selection activeCell="A74" sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>867</v>
+      </c>
+      <c r="H31" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>822</v>
+      </c>
+      <c r="H69" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>838</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/links.xlsx
+++ b/links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/easyo/Desktop/oeasy/oeasypython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6C8C37-A7F6-F34F-AD8E-31879F8BD784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23138663-7C3E-144F-B688-0BE0D28254A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1620" windowWidth="28240" windowHeight="17440" activeTab="6" xr2:uid="{3BF5CFE5-2482-BA45-A1DA-B3DE576DDE57}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="6" xr2:uid="{3BF5CFE5-2482-BA45-A1DA-B3DE576DDE57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="test2" localSheetId="4">Sheet4!$A$1:$A$18</definedName>
     <definedName name="test2" localSheetId="5">Sheet6!$A$1:$A$66</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="1250">
   <si>
     <t>001-87321-先跑起来.sy.md</t>
   </si>
@@ -2470,260 +2470,1398 @@
     <t>65-497989-准备删除.sy.md</t>
   </si>
   <si>
-    <t xml:space="preserve">    - 最初探索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    - 终端应用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    - 图形界面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    - 文件和文件夹基本操作</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    - 用户</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    - 用户组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    - ssh远程登录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [远程登录%20ssh](./md/370-210191-000223%20远程登录%20ssh.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [Oh-My-Zsh](./md/380-250350-000223%20Oh-My-Zsh.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [远程拷贝%20scp](./md/360-210190-000222%20远程拷贝%20scp.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    - postgresql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    - 静态</t>
-  </si>
-  <si>
-    <t>- 用户和用户组</t>
+    <t>- [Github地址](https://github.com/overmind1980/oeasy-python-tutorial)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 数据库服务器</t>
+    <t>- [Gitee地址](https://gitee.com/overmind1980/oeasypython)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- web服务器</t>
+    <t>- [蓝桥实验楼](https://www.lanqiao.cn/courses/3584)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">        - [nginx](./md/34-192426-nginx.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [apache](./md/35-260422-apache.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [tomcat结构](./md/37-260421-tomcat结构.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [徒手建立应用](./md/38-526680-徒手建立应用.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [搭建开发环境](./md/39-260423-搭建开发环境.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [调试模式_debug_mode_log日志](./md/40-265117-调试模式_debug_mode_log日志.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [前端和后端](./md/41-261125-前端和后端.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [双层架构(2-tier)](./md/42-485593-双层架构(2-tier).sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [请求和响应](./md/43-485612-请求和响应.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [请求参数](./md/44-495450-请求参数.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [处理异常](./md/45-498649-处理异常.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [连接postgresql数据库引擎](./md/46-200308-连接postgresql数据库引擎.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [通过驱动访问postgres数据库引擎](./md/47-527010-通过驱动访问postgres数据库引擎.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [JDBC理解](./md/48-527011-JDBC理解.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [通过动态页面访问postgres数据库引擎](./md/49-263205-通过动态页面访问postgres数据库引擎.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [自动加载更新的class(tomcat无需重启)](./md/50-263206-自动加载更新的class(tomcat无需重启).sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [修改表结构](./md/51-263207-修改表结构.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [管理约束条件CONSTRAINT](./md/52-265977-管理约束条件CONSTRAINT.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [使用jdbc向数据库插入数据](./md/53-527013-使用jdbc向数据库插入数据.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [使用servlet向数据库插入数据](./md/54-527012-使用servlet向数据库插入数据.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [响应重定向](./md/55-527130-响应重定向.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [使用网页提交数据_文本框post提交表单](./md/56-264932-使用网页提交数据_文本框post提交表单.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [使用网页插入数据库](./md/57-266982-使用网页插入数据库.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [先查再插入](./md/58-263308-先查再插入.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [文本框前端验证](./md/59-271131-文本框前端验证.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [密码二次输入验证复杂性](./md/60-263208-密码二次输入验证复杂性.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [封装数据库连接](./md/61-483456-封装数据库连接.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [PrepareStatement准备语句](./md/62-483477-PrepareStatement准备语句.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [JNDI](./md/63-484450-JNDI.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [JDBC数据库连接池](./md/64-485586-JDBC数据库连接池.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [准备删除](./md/65-497989-准备删除.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    -  动态</t>
+    <t xml:space="preserve">        - [先跑起来_python_IDLE_shell_虚拟机](./md/001-87321-先跑起来_python_IDLE_shell_虚拟机.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [和python一起玩耍_python解释器_数学运算](./md/002-820839-和python一起玩耍_python解释器_数学运算.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [你好世界_hello_world](./md/003-87323-你好世界_hello_world.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [编写py文件_vi_vim编辑器_保存python文件](./md/004-564945-编写py文件_vi_vim编辑器_保存python文件.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [运行python文件_报错处理_NameError](./md/005-821073-运行python文件_报错处理_NameError.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [万行代码之梦_vim环境_复制粘贴](./md/006-87333-万行代码之梦_vim环境_复制粘贴.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [勇闯地下城_git_clone_下载代码](./md/007-568115-勇闯地下城_git_clone_下载代码.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [自由软件运动_free_software_stallman](./md/008-523759-自由软件运动_free_software_stallman.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [开源运动_linux_opensource_linus](./md/009-838897-开源运动_linux_opensource_linus.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [Guido的简历_从ABC到python](./md/010-573898-Guido的简历_从ABC到python.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [顺序执行过程_流水_流程_执行次序](./md/011-813939-顺序执行过程_流水_流程_执行次序.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [调试程序_debug_next_下一步_help_pdb3](./md/012-87374-调试程序_debug_next_下一步_help_pdb3.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [设置断点_break_point_continue_运行到断点](./md/013-567553-设置断点_break_point_continue_运行到断点.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [hello_world的由来_unix时代_multics](./md/014-87385-hello_world的由来_unix时代_multics.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [导入模块_hello_world_c语言教材_dunder_双下划线](./md/015-842335-导入模块_hello_world_c语言教材_dunder_双下划线.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [ord函数_字符序号_ordinal_根据字符得到序号](./md/016-87487-ord函数_字符序号_ordinal_根据字符得到序号.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [chr函数_字符_character_根据序号得到字符](./md/017-570635-chr函数_字符_character_根据序号得到字符.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [ASCII码表_英文字符编码_键盘字符_ISO_646](./md/018-87675-ASCII码表_英文字符编码_键盘字符_ISO_646.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [type_类型_int_str_印刷演化_雕版_活字_打字机](./md/019-564946-type_类型_int_str_印刷演化_雕版_活字_打字机.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [二进制_binary_bin函数](./md/020-814923-二进制_binary_bin函数.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [词源_two_binary_double_decimal_ten](./md/021-809654-词源_two_binary_double_decimal_ten.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [十六进制_hexadecimal_字节形态_二进制_binary](./md/022-567657-十六进制_hexadecimal_字节形态_二进制_binary.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [字节形态_hex函数_安徒生童话_byte](./md/023-814924-字节形态_hex函数_安徒生童话_byte.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [vim_shell_python_命令行工作流的总结](./md/024-896865-vim_shell_python_命令行工作流的总结.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [数字化_太极_两仪_四象_八卦](./md/025-838971-数字化_太极_两仪_四象_八卦.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [编码_encode_编号_字节_计算机](./md/026-564947-编码_encode_编号_字节_计算机.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [解码_decode_字节序列_bytes_字符串_str](./md/027-568036-解码_decode_字节序列_bytes_字符串_str.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [ASCII_字符分布_数字_大小写字母_符号_黑暗森林](./md/028-743980-ASCII_字符分布_数字_大小写字母_符号_黑暗森林.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [黑暗森林显形_7bit电传打字机_ASCII中的隐藏字符](./md/029-896408-黑暗森林显形_7bit电传打字机_ASCII中的隐藏字符.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [换行字符_feed_line_lf_反斜杠n](./md/030-87338-换行字符_feed_line_lf_反斜杠n.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [python虚拟机的位置_可执行文件_转化为字节形态](./md/031-595697-python虚拟机的位置_可执行文件_转化为字节形态.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [python虚拟机_反编译_cpu架构_二进制字节码_汇编语言](./md/032-87382-python虚拟机_反编译_cpu架构_二进制字节码_汇编语言.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [cpu架构_指令集_x86-64_arm_架构师_门电路晶体管](./md/033-820487-cpu架构_指令集_x86-64_arm_架构师_门电路晶体管.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [框架标题的制作_banner_结尾字符串_end](./md/034-87991-框架标题的制作_banner_结尾字符串_end.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [输出时间_time_模块_module_函数_function](./md/035-87992-输出时间_time_模块_module_函数_function.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [函数嵌套调用_分步骤拆开_localtime_asctime](./md/036-820488-函数嵌套调用_分步骤拆开_localtime_asctime.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [unix时间戳_epoch_PosixTime_unix纪年法](./md/037-578087-unix时间戳_epoch_PosixTime_unix纪年法.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [刷新时间_延迟时间_time_sleep_死循环_while_True](./md/038-87993-刷新时间_延迟时间_time_sleep_死循环_while_True.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [整合程序_延迟输出时间_整合两个py程序](./md/039-87995-整合程序_延迟输出时间_整合两个py程序.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [直接运行_修改py文件执行权限_设置py文件打开方式](./md/040-87996-直接运行_修改py文件执行权限_设置py文件打开方式.sy.md)</t>
+  </si>
+  <si>
+    <t>- python 语言基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- [Github地址](https://github.com/overmind1980/oeasylinux)</t>
+    <t xml:space="preserve">    - 先跑起来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- [Gitee地址](https://gitee.com/overmind1980/oeasylinux)</t>
+    <t xml:space="preserve">    - 系统环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- [蓝桥实验楼](https://www.lanqiao.cn/courses/2712)</t>
+    <t xml:space="preserve">        - [放入系统路径_PATH_chmod_程序路径_执行原理](./md/041-578023-放入系统路径_PATH_chmod_程序路径_执行原理.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [设置路径_export_PATH_zsh_系统路径设置_export](./md/042-88007-设置路径_export_PATH_zsh_系统路径设置_export.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [终端初始化_rc_runcommand_zsh_shell](./md/043-820509-终端初始化_rc_runcommand_zsh_shell.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [挂起进程_suspend_恢复进程_进程切换_process](./md/044-88008-挂起进程_suspend_恢复进程_进程切换_process.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [进程前后台切换_fg_bg_foreground_background](./md/045-820510-进程前后台切换_fg_bg_foreground_background.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [杀死进程_kill_挂起进程_suspend_ps_显示进程](./md/046-793201-杀死进程_kill_挂起进程_suspend_ps_显示进程.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [进程后台运行_不输出_nohup_标准输出流_标准错误输出流](./md/047-853505-进程后台运行_不输出_nohup_标准输出流_标准错误输出流.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [进程_内存状态_process_ps_pid_ppid_RSS_SZ](./md/048-820515-进程_内存状态_process_ps_pid_ppid_RSS_SZ.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [任务管理_jobs_切换任务_进程树结构_fg_pstree_进程树](./md/049-793209-任务管理_jobs_切换任务_进程树结构_fg_pstree_进程树.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [回车_carriage_return_car_cargo_carry](./md/050-88353-回车_carriage_return_car_cargo_carry.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [字体变大_figlet_终端大字体_艺术字效果](./md/051-820516-字体变大_figlet_终端大字体_艺术字效果.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [整合shell编程_循环_延迟_清屏_变色_管道_pipe](./md/052-95601-整合shell编程_循环_延迟_清屏_变色_管道_pipe.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [牛说_cowsay_小动物说话_asciiart_figlet_管道](./md/053-578024-牛说_cowsay_小动物说话_asciiart_figlet_管道.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [定制时间输出格式_年月日_时分秒_time_strftime_lolcat](./md/054-820672-定制时间输出格式_年月日_时分秒_time_strftime_lolcat.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [字符画艺术_asciiview_自制小动物_imagick_asciiart](./md/055-580201-字符画艺术_asciiview_自制小动物_imagick_asciiart.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [cowsay_结合自定义小动物_asciiview_aview_imagemagick](./md/056-820684-cowsay_结合自定义小动物_asciiview_aview_imagemagick.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [电传打字机_打印头_print_head](./md/057-803315-电传打字机_打印头_print_head.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [打印头_carriage_course_词源_标准输入流_标准输出流_stdio](./md/058-820686-打印头_carriage_course_词源_标准输入流_标准输出流_stdio.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [终端_terminal_电传打字机_tty_shell_控制台_console_发展历史](./md/059-88354-终端_terminal_电传打字机_tty_shell_控制台_console_发展历史.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [换行与回车的不同_通用换行符_universal_newlines](./md/060-802475-换行与回车的不同_通用换行符_universal_newlines.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [电传打字机_tele_typewriter](./md/061-88730-电传打字机_tele_typewriter.sp.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [teletype历史_波特码_字符数字切换_gear_波特_波特率_paud](./md/062-88731-teletype历史_波特码_字符数字切换_gear_波特_波特率_paud.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [SHIFT_CAPSLOCK_自锁式开关_轻触式开关_ITA1编码_PDP_7_ASR_33](./md/063-820695-SHIFT_CAPSLOCK_自锁式开关_轻触式开关_ITA1编码_PDP_7_ASR_33.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [转义字符_转义序列_escape_序列_sequence](./md/064-87343-转义字符_转义序列_escape_序列_sequence.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [八进制_oct_octal_october_octave](./md/065-568046-八进制_oct_octal_october_octave.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [四种进制_binary_octal_decimal_hexadecimal](./md/066-583333-四种进制_binary_octal_decimal_hexadecimal.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [转化为10进制数_int_integrate_integer_entire_整数](./md/067-583334-转化为10进制数_int_integrate_integer_entire_整数.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [取整_int_float_浮点型_cast_扮演_tab_制表键_制表符](./md/068-814920-取整_int_float_浮点型_cast_扮演_tab_制表键_制表符.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [转义_escape_字符_character_反斜杠](./md/069-89703-转义_escape_字符_character_反斜杠.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [raw格式字符串_单引号_双引号_反引号_ 退格键](./md/070-816225-raw格式字符串_单引号_双引号_反引号_ 退格键.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [续行符_line_continuation_python行尾续行](./md/071-583336-续行符_line_continuation_python行尾续行.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [三引号_原样显示字符串_triple_quoted](./md/072-583337-三引号_原样显示字符串_triple_quoted.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [控制序列_光标位置设置_ESC_逃逸字符_CSI](./md/073-87341-控制序列_光标位置设置_ESC_逃逸字符_CSI.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [ESC键进化历史_键盘演化过程_ANSI_控制序列_转义序列_CSI](./md/074-820827-ESC键进化历史_键盘演化过程_ANSI_控制序列_转义序列_CSI.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [控制序列_清屏_控制输出位置_2J](./md/075-820842-控制序列_清屏_控制输出位置_2J.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [字体样式_正常_加亮_变暗_控制序列](./md/076-104140-字体样式_正常_加亮_变暗_控制序列.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [字体样式_下划线_中划线_闪动效果_反相_取消效果](./md/077-594584-字体样式_下划线_中划线_闪动效果_反相_取消效果.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [修改字体前景颜色_foreground_color_font](./md/078-87346-修改字体前景颜色_foreground_color_font.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [自定义小动物变色_cowsay_color_boxes_asciiart](./md/079-594585-自定义小动物变色_cowsay_color_boxes_asciiart.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [修改字体背景颜色_background_color_背景色](./md/080-95632-修改字体背景颜色_background_color_背景色.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [设置高亮色_color_highlight_ansi_控制终端颜色](./md/081-89900-设置高亮色_color_highlight_ansi_控制终端颜色.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [设置索引颜色_index_color_ansi_控制终端颜色](./md/082-821033-设置索引颜色_index_color_ansi_控制终端颜色.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [设置RGB颜色_24bit_24位真彩色_颜色设置](./md/083-596668-设置RGB颜色_24bit_24位真彩色_颜色设置.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [ANSI序列由来_终端机_VT100_DEC_VT选项_终端控制序列](./md/084-821044-ANSI序列由来_终端机_VT100_DEC_VT选项_终端控制序列.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [VT100_演化_颜色设置_VT选项_基础色_高亮色_索引色_RGB总结](./md/085-821055-VT100_演化_颜色设置_VT选项_基础色_高亮色_索引色_RGB总结.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 字符编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">        - [000101 什么是内核 uname](./md/01-45529-000101 什么是内核 uname.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000102 什么是发行版 distro](./md/02-45530-000102 什么是发行版 distro.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000103 我在哪 pwd](./md/03-45531-000103 我在哪 pwd.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000104 灵魂之问 whatis](./md/04-45532-000104 灵魂之问 whatis.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000105 详查手册 man](./md/05-45533-000105 详查手册 man.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000106 这儿都有啥 ls](./md/06-45534-000106 这儿都有啥 ls.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000107 那啥在哪 whereis](./md/07-45535-000107 那啥在哪 whereis.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000108 到底哪个 which](./md/08-45536-000108 到底哪个 which.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000109 清屏 clear](./md/09-45537-000109 清屏 clear.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000110 命令行总结 summary](./md/10-48362-000110 命令行总结 summary.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000201 持续输出 yes](./md/11-45538-000201 持续输出 yes.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000202 软件包管理 apt](./md/12-45541-000202 软件包管理 apt.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000203 标志 linuxlogo](./md/13-45542-000203 标志 linuxlogo.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000204 字符画 figlet](./md/14-45568-000204 字符画 figlet.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000205 风格文字 toilet](./md/15-45569-000205 风格文字 toilet.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000206 蒸汽机车 sl](./md/16-45571-000206 蒸汽机车 sl.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000207 黑客帝国 cmatrix](./md/17-45574-000207 黑客帝国 cmatrix.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000208 满屏乱码 bb](./md/18-45572-000208 满屏乱码 bb.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000209 装酷屏幕 hollywood](./md/19-45570-000209 装酷屏幕 hollywood.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000210 应用管理 aptitude](./md/20-45581-000210 应用管理 aptitude.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000211 牛说 cowsay](./md/21-45575-000211 牛说 cowsay.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000212 管道 pipe](./md/22-45578-000212 管道 pipe.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000213 中文输入 fcitx](./md/23-45576-000213 中文输入 fcitx.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000214 字符图 asciiview](./md/24-48588-000214 字符图 asciiview.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000215 随机笑话 fortune](./md/25-48590-000215 随机笑话 fortune.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000216 中文诗词 fortune-zh](./md/26-45580-000216 中文诗词 fortune-zh.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000217 分屏工具 tmux](./md/27-209842-000217 分屏工具 tmux.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000301 桌面宠物 pet](./md/28-45583-000301 桌面宠物 pet.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000302 火狐 firefox](./md/29-45586-000302 火狐 firefox.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000303 文件管理器 nautilus](./md/30-45587-000303 文件管理器 nautilus.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000304 用户界面 xfce](./md/31-45579-000304 用户界面 xfce.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000305 总结 Summary](./md/32-45566-000305 总结 Summary.sy.md)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - [000218_数据库_postgres](./md/33-199464-000218_数据库_postgres.sy.md)</t>
+    <t xml:space="preserve">        - [十进制数如何存入计算机_八卦纪事_BCD编码_Binary_Coded_Decimal](./md/086-92241-十进制数如何存入计算机_八卦纪事_BCD编码_Binary_Coded_Decimal.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [扩展BCD_EBCDIC_ibm的发家史](./md/087-590198-扩展BCD_EBCDIC_ibm的发家史.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [ASCII是怎么来的_ASCII之父_Bemer_COBOL_数据交换网络](./md/088-596874-ASCII是怎么来的_ASCII之父_Bemer_COBOL_数据交换网络.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [ASCII_出现背景_1963年_DEC_PDP系列主机_VT系列终端](./md/089-843405-ASCII_出现背景_1963年_DEC_PDP系列主机_VT系列终端.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [字节_Byte_存储单位_KB_MB_GB_TB](./md/090-596873-字节_Byte_存储单位_KB_MB_GB_TB.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [大型机的衰落_Dec小型机崛起_PDP_VAX网络](./md/091-643544-大型机的衰落_Dec小型机崛起_PDP_VAX网络.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [极客起源_wozniac_苹果公司_Jobs_Wozniac](./md/092-663918-极客起源_wozniac_苹果公司_Jobs_Wozniac.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [仙童公司_八叛逆_intel_8080_altair8800_牛郎星](./md/093-803394-仙童公司_八叛逆_intel_8080_altair8800_牛郎星.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [homebrew_家酿俱乐部_比尔盖茨_保罗艾伦](./md/094-847483-homebrew_家酿俱乐部_比尔盖茨_保罗艾伦.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [电子游戏_视频游戏_达特茅斯_Basic_家酿俱乐部](./md/095-847484-电子游戏_视频游戏_达特茅斯_Basic_家酿俱乐部.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [视频游戏_双人网球_pong_atari_mos_6502_雅达利_米洛华](./md/096-803388-视频游戏_双人网球_pong_atari_mos_6502_雅达利_米洛华.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [乔布斯求职_雅达利_atari_breakout_打砖块_布什内尔_游戏机_Jobs](./md/097-803398-乔布斯求职_雅达利_atari_breakout_打砖块_布什内尔_游戏机_Jobs.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [游戏娱乐行业_雅达利_米洛华_四人赛马_影视结合游戏](./md/098-847485-游戏娱乐行业_雅达利_米洛华_四人赛马_影视结合游戏.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [苹果诞生_史蒂夫_乔布斯_沃兹尼亚克_apple_I](./md/099-803395-苹果诞生_史蒂夫_乔布斯_沃兹尼亚克_apple_I.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [个人计算机浪潮_IBM5100_微软成立_苹果II_VisCalc](./md/100-598283-个人计算机浪潮_IBM5100_微软成立_苹果II_VisCalc.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [雅达利大崩溃_IBM的开放架构_兼容机_oem](./md/101-847486-雅达利大崩溃_IBM的开放架构_兼容机_oem.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [wintel联盟_intel_微软_microsoft_msDOS_基尔代尔](./md/102-666410-wintel联盟_intel_微软_microsoft_msDOS_基尔代尔.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [尾声_PC_wintel_8080_诸神的黄昏_arm_riscv](./md/103-847487-尾声_PC_wintel_8080_诸神的黄昏_arm_riscv.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [python分词_词法分析_lexical](./md/104-530001-python分词_词法分析_lexical.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [python_反编译_字节码指令_disassemble](./md/105-595766-python_反编译_字节码指令_disassemble.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [指示灯_显示_LED_辉光管_霓虹灯](./md/106-803385-指示灯_显示_LED_辉光管_霓虹灯.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [七段数码管_7_SEGMENT_数码管驱动_4511](./md/107-803324-七段数码管_7_SEGMENT_数码管驱动_4511.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [七段数码管_显示字母_BP寻呼机](./md/108-821088-七段数码管_显示字母_BP寻呼机.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [14段数码管_米字管_14_SEGMENT](./md/109-803387-14段数码管_米字管_14_SEGMENT.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [谷腾堡活字_哥特字体_罗马帝国_希腊文化_文艺复兴](./md/110-809137-谷腾堡活字_哥特字体_罗马帝国_希腊文化_文艺复兴.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [tty_打字头_电传打字机_字模_点阵字库](./md/111-820429-tty_打字头_电传打字机_字模_点阵字库.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [屏幕点阵字体_3x5_5x7_雅达利字库](./md/112-820490-屏幕点阵字体_3x5_5x7_雅达利字库.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [字型码_字符字型编码_点阵字库_ascii演化](./md/113-596742-字型码_字符字型编码_点阵字库_ascii演化.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [扩展ascii_Extended_ascii_法文字符](./md/114-803325-扩展ascii_Extended_ascii_法文字符.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [字符编码_VT100控制码_iso_8859_1_拉丁字符_latin](./md/115-92402-字符编码_VT100控制码_iso_8859_1_拉丁字符_latin.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [东西罗马帝国_西里尔文字_卢恩符文系统_斯拉夫语族](./md/116-802608-东西罗马帝国_西里尔文字_卢恩符文系统_斯拉夫语族.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [西里尔字符集_Cyrillic_俄文字符编码_KOI_8859系列_1252字符集](./md/117-820483-西里尔字符集_Cyrillic_俄文字符编码_KOI_8859系列_1252字符集.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [文字的起源_苏美尔文明_楔形文字_两河流域](./md/118-821072-文字的起源_苏美尔文明_楔形文字_两河流域.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [文字的演化_埃及圣书体_象形文字_楔形文字](./md/119-802607-文字的演化_埃及圣书体_象形文字_楔形文字.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [语言的发展_希腊字符_拼音文字_亚历山大大帝](./md/120-809592-语言的发展_希腊字符_拼音文字_亚历山大大帝.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [语言的演化_拉丁字符_罗马帝国_罗马体](./md/121-821066-语言的演化_拉丁字符_罗马帝国_罗马体.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [英语的崛起_英文字符_小写字母的由来_不列颠帝国](./md/122-821069-英语的崛起_英文字符_小写字母的由来_不列颠帝国.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [日韩字符_日文假名_JIS_Shift_韩国谚文](./md/123-733665-日韩字符_日文假名_JIS_Shift_韩国谚文.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [中文字符_文字编码_gb2312_激光照排技术_王选](./md/124-590241-中文字符_文字编码_gb2312_激光照排技术_王选.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [Code_page_437_IBM_5150_点阵式字形码_显示器效果](./md/125-803250-Code_page_437_IBM_5150_点阵式字形码_显示器效果.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [汉字打印机_点阵式打字机_汉字字形码](./md/126-820491-汉字打印机_点阵式打字机_汉字字形码.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [中文系统_gbk_BIG5_南极星_内码转化](./md/127-820492-中文系统_gbk_BIG5_南极星_内码转化.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [unicode_字符集_character_set_八卦_星座](./md/128-92414-unicode_字符集_character_set_八卦_星座.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [unicode_中文字符序号_十三道大辙_字符编码解码_eval_火星文](./md/129-802478-unicode_中文字符序号_十三道大辙_字符编码解码_eval_火星文.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [各种符号_上下颠倒英文字符_注音符号](./md/130-89935-各种符号_上下颠倒英文字符_注音符号.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [好玩的unicode字符_另类字符](./md/131-92554-好玩的unicode字符_另类字符.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [utf-8_unicode_transformation_format_8_编码方式](./md/132-92423-utf-8_unicode_transformation_format_8_编码方式.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [emoji_表情符号_抽象_由来](./md/133-590238-emoji_表情符号_抽象_由来.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [颜文字_流石兄弟_表情文字_2ch_kaomoji](./md/134-802537-颜文字_流石兄弟_表情文字_2ch_kaomoji.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [python起源_历史_Guido人生_ABC编程语言_Tanenbaum](./md/135-92555-python起源_历史_Guido人生_ABC编程语言_Tanenbaum.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 变量和基本类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [变量含义_meaning_声明_declaration_赋值_assignment](./md/136-188456-变量含义_meaning_声明_declaration_赋值_assignment.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [变量名_标识符_identifier_id_locals](./md/137-188458-变量名_标识符_identifier_id_locals.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [变量名与下划线_dunder_声明与赋值](./md/138-851184-变量名与下划线_dunder_声明与赋值.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [命名惯用法_name_convention](./md/139-595779-命名惯用法_name_convention.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [接收输入_input函数_字符串_str](./md/140-188464-接收输入_input函数_字符串_str.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [相加运算_python之禅_import_this_显式转化](./md/141-188465-相加运算_python之禅_import_this_显式转化.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [尝试捕获异常_ try_except_traceback](./md/142-188729-尝试捕获异常_ try_except_traceback.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [导入_import_from_as_namespace](./md/143-531765-导入_import_from_as_namespace.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [自制模块_module_reusability_复用性](./md/144-188728-自制模块_module_reusability_复用性.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [主控程序_main](./md/145-188730-主控程序_main.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [try的完全体_否则_else_最终_finally](./md/146-595783-try的完全体_否则_else_最终_finally.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [版本控制_git](./md/147-188731-版本控制_git.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [注释_comment_设置默认编码格式](./md/148-188727-注释_comment_设置默认编码格式.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [帮助手册_pydoc](./md/149-188787-帮助手册_pydoc.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [动态类型_静态类型_编译_运行](./md/150-188798-动态类型_静态类型_编译_运行.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [字符串类型](./md/151-188803-字符串类型.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [整型数字变量](./md/152-188814-整型数字变量.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [进制转化_eval_evaluate_衡量](./md/153-188908-进制转化_eval_evaluate_衡量.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [字节序_byte_order_struct_pack](./md/154-532045-字节序_byte_order_struct_pack.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [删除变量](./md/155-529966-删除变量.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [变量部分总结](./md/156-529967-变量部分总结.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [加法运算](./md/157-188921-加法运算.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [调试加法](./md/158-529609-调试加法.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [键盘输入](./md/159-188926-键盘输入.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [随机数字](./md/160-188927-随机数字.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [随机字符](./md/161-189035-随机字符.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [随机颜色](./md/162-595579-随机颜色.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [颜色常量](./md/163-189036-颜色常量.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [打包和解包_struct_pack_unpack](./md/164-578054-打包和解包_struct_pack_unpack.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [减法运算](./md/165-188928-减法运算.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [负数表示](./md/166-188929-负数表示.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [补码系统](./md/167-189359-补码系统.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [乘法运算](./md/168-188930-乘法运算.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [除法运算](./md/169-189507-除法运算.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [取整操作](./md/170-189509-取整操作.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [浮点类型数字_float_科学计数法](./md/171-189513-浮点类型数字_float_科学计数法.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [浮点运算误差](./md/172-532046-浮点运算误差.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [分数类型_Fraction](./md/173-189617-分数类型_Fraction.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [精确十进制数_Decimal](./md/174-539616-精确十进制数_Decimal.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [深入浮点型数字](./md/175-189618-深入浮点型数字.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [深入整型数字](./md/176-189619-深入整型数字.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [乘方运算_科学计数法](./md/177-189506-乘方运算_科学计数法.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [python_语义分析_ast_抽象语法树_abstract_syntax_tree](./md/178-595767-python_语义分析_ast_抽象语法树_abstract_syntax_tree.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [变量声明赋值的调试_debug_反编译_disassemble](./md/179-532023-变量声明赋值的调试_debug_反编译_disassemble.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [执行字符串_exec_execute](./md/180-548476-执行字符串_exec_execute.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [python的积累](./md/181-556666-python的积累.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [开方和对数运算](./md/182-189668-开方和对数运算.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [复数类型_complex](./md/183-189669-复数类型_complex.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [增强_augmented_赋值_assignment_语句_statement](./md/184-532047-增强_augmented_赋值_assignment_语句_statement.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [运算和表达式_expression_总结](./md/185-189673-运算和表达式_expression_总结.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 读写文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [打开文件](./md/186-189722-打开文件.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [读取细节](./md/187-189725-读取细节.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [命令行参数_command_line_argument](./md/188-189732-命令行参数_command_line_argument.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [读取shell命令执行结果](./md/189-488593-读取shell命令执行结果.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [写入文件](./md/190-190174-写入文件.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [二进制模式](./md/191-190199-二进制模式.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [二进制文件流存取整数](./md/192-190203-二进制文件流存取整数.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [二进制文件流存取浮点数](./md/193-190458-二进制文件流存取浮点数.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [Python 的进化](./md/194-190459-Python 的进化.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [拷贝程序](./md/195-190650-拷贝程序.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [文件锁](./md/196-191368-文件锁.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [追加写入](./md/197-190654-追加写入.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [序列化_serialize](./md/198-190651-序列化_serialize.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [按需读写](./md/199-562133-按需读写.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [多文件读写](./md/200-190652-多文件读写.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [执行外部命令](./md/201-192165-执行外部命令.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [文件编码_file_encoding](./md/202-190653-文件编码_file_encoding.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [系统命令](./md/203-233669-系统命令.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [with关键字](./md/204-192174-with关键字.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 容器类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_list_容器类型_readlines](./md/205-192219-列表_list_容器类型_readlines.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_列表项的追加_append_清空列表_clear](./md/206-192220-列表_列表项的追加_append_清空列表_clear.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_删除列表项_remove_列表长度_len](./md/207-688967-列表_删除列表项_remove_列表长度_len.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_构造_范围_range_start_end_step_步长](./md/208-192221-列表_构造_范围_range_start_end_step_步长.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_可迭代对象_iterable_转化为列表](./md/209-694985-列表_可迭代对象_iterable_转化为列表.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_索引_index_中括号_索引函数](./md/210-192241-列表_索引_index_中括号_索引函数.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_python_系统_sys_命令行参数列表_argv](./md/211-698722-列表_python_系统_sys_命令行参数列表_argv.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_计数函数_count](./md/212-743981-列表_计数函数_count.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_切片_slice_开始_结束](./md/213-192294-列表_切片_slice_开始_结束.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_切片_slice_步长_step_翻转_reverse](./md/214-745547-列表_切片_slice_步长_step_翻转_reverse.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_删除_del_索引元素_切片](./md/215-744319-列表_删除_del_索引元素_切片.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_赋值_assignment_拷贝_copy](./md/216-745546-列表_赋值_assignment_拷贝_copy.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_加法_增强赋值_加等于_extend_扩展列表](./md/217-192242-列表_加法_增强赋值_加等于_extend_扩展列表.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_乘法_空列表_None](./md/218-748098-列表_乘法_空列表_None.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_排序_sort_比较大小](./md/219-192295-列表_排序_sort_比较大小.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_有序列表_在指定位置插入_insert_弹栈_pop](./md/220-763909-列表_有序列表_在指定位置插入_insert_弹栈_pop.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_乱序_shuffle_扑克牌_升级_拖拉机](./md/221-749448-列表_乱序_shuffle_扑克牌_升级_拖拉机.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_嵌套_embeded_二维列表_多维列表](./md/222-192296-列表_嵌套_embeded_二维列表_多维列表.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_直接赋值_浅拷贝_shallowcopy](./md/223-562231-列表_直接赋值_浅拷贝_shallowcopy.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_深拷贝_deepcopy](./md/224-763913-列表_深拷贝_deepcopy.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表_多维列表运算_列表相加_列表相乘](./md/225-763906-列表_多维列表运算_列表相加_列表相乘.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [元组_tuple_定义_统计方法_表驱动](./md/226-764051-元组_tuple_定义_统计方法_表驱动.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [元组_tuple_不可变_immutable](./md/227-192304-元组_tuple_不可变_immutable.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [元组_运算_封包解包](./md/228-531782-元组_运算_封包解包.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [序列_字符串_string_字节序列_str](./md/229-192403-序列_字符串_string_字节序列_str.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [序列_字节流_bytes_字节序列_构造函数](./md/230-192405-序列_字节流_bytes_字节序列_构造函数.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [序列_字节序列_bytes_序列通用操作_in](./md/231-789965-序列_字节序列_bytes_序列通用操作_in.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [集合_元素操作_set_add_添加集合元素_remove_删除_pop_clear](./md/232-192411-集合_元素操作_set_add_添加集合元素_remove_删除_pop_clear.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [集合_冰封集合_拷贝_浅拷贝_深拷贝](./md/233-791000-集合_冰封集合_拷贝_浅拷贝_深拷贝.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [集合_运算_交集_并集_差集_对称差集](./md/234-192413-集合_运算_交集_并集_差集_对称差集.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [集合_增强赋值运算_intersetction_update_update](./md/235-791092-集合_增强赋值运算_intersetction_update_update.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [字典_构造_dictionary_Constructor](./md/236-192414-字典_构造_dictionary_Constructor.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [字典_键值对_key_value_pair](./md/237-532196-字典_键值对_key_value_pair.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [字典_存取字典项_access_dictionary_item](./md/238-192423-字典_存取字典项_access_dictionary_item.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [字典_更新与运算_dictionary_update_operating](./md/239-558806-字典_更新与运算_dictionary_update_operating.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [容器_container_总结_list_tuple_set_dict_summary](./md/240-201638-容器_container_总结_list_tuple_set_dict_summary.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [容器类对象与字符串类型转化_eval_json_loads_dumps](./md/241-792538-容器类对象与字符串类型转化_eval_json_loads_dumps.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [容器对象的腌制和存储_pickle](./md/242-203868-容器对象的腌制和存储_pickle.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 条件分支流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [分支开始](./md/243-197319-分支开始.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [布尔类型_bool_True_False_常见变量的布尔值](./md/244-531703-布尔类型_bool_True_False_常见变量的布尔值.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [if条件判断_门电路_判断条件_代码缩进](./md/245-851729-if条件判断_门电路_判断条件_代码缩进.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [缩进细节_indent_if条件_多条语句](./md/246-198696-缩进细节_indent_if条件_多条语句.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [调试程序](./md/247-199151-调试程序.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [比较运算符](./md/248-199155-比较运算符.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [inifinite_无限_正无穷_nan_not_a_number_不是数字](./md/249-814922-inifinite_无限_正无穷_nan_not_a_number_不是数字.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [序列类容器的比较运算](./md/250-203062-序列类容器的比较运算.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [映射类和集合类容器比较运算](./md/251-203075-映射类和集合类容器比较运算.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [值比较与地址比较_is](./md/252-203108-值比较与地址比较_is.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [小数据池_小数值_字符串拘留所_标准常量](./md/253-531615-小数据池_小数值_字符串拘留所_标准常量.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [是否是某类型实例_isinstance](./md/254-203370-是否是某类型实例_isinstance.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [是否属于_in](./md/255-203367-是否属于_in.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [取反运算_not](./md/256-203369-取反运算_not.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [双分支结构_if_else_闪烁的变色狐狸](./md/257-203372-双分支结构_if_else_闪烁的变色狐狸.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [双分支应用_摇尾巴的狐狸_asciiart_两帧抖动](./md/258-802477-双分支应用_摇尾巴的狐狸_asciiart_两帧抖动.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [奇数_even_偶数_odd_数学运算_十以内加减法_暴雪公司](./md/259-802606-奇数_even_偶数_odd_数学运算_十以内加减法_暴雪公司.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [三目运算符](./md/260-203373-三目运算符.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [嵌套条件语句](./md/261-203374-嵌套条件语句.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [多分支条件语句_elif](./md/262-203376-多分支条件语句_elif.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [跳过猜丁壳_pass](./md/263-203377-跳过猜丁壳_pass.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [逻辑与_and](./md/264-203381-逻辑与_and.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [数字区间](./md/265-203409-数字区间.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [逻辑或_or](./md/266-203387-逻辑或_or.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [优先级_precedence](./md/267-203872-优先级_precedence.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [综合练习_玩骰子_dices](./md/268-203873-综合练习_玩骰子_dices.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [位运算符_按位与或非_bitwise_非与或](./md/269-203874-位运算符_按位与或非_bitwise_非与或.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [逻辑判断的短路问题_print返回值](./md/270-848689-逻辑判断的短路问题_print返回值.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [移位运算符](./md/271-205644-移位运算符.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [条件分支流程总结](./md/272-206033-条件分支流程总结.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 循环流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [循环起来_while](./md/273-233735-循环起来_while.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [执行shell命令](./md/274-328398-执行shell命令.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [调试循环](./md/275-233736-调试循环.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [循环练习](./md/276-529651-循环练习.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [打破循环_break_跳出循环](./md/277-233769-打破循环_break_跳出循环.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [循环细节](./md/278-233772-循环细节.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [不满足循环条件时_else](./md/279-233773-不满足循环条件时_else.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [继续_continue_数七](./md/280-233775-继续_continue_数七.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [for_循环](./md/281-233791-for_循环.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [for循环与跳过_continue_和跳出_break](./md/282-660207-for循环与跳过_continue_和跳出_break.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [玲珑塔](./md/283-523827-玲珑塔.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [移动的字符画](./md/284-583348-移动的字符画.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [可迭代_iterable_对象_元组_tuple_列表_list](./md/285-233802-可迭代_iterable_对象_元组_tuple_列表_list.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [可迭代_iterable_对象_集合_set_排序_sorted](./md/286-233828-可迭代_iterable_对象_集合_set_排序_sorted.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [for遍历字符串_string_和字节序列_bytes](./md/287-233829-for遍历字符串_string_和字节序列_bytes.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [for_遍历字典_dict](./md/288-233927-for_遍历字典_dict.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [缝合_zip](./md/289-234325-缝合_zip.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [缝编号_enumerate](./md/290-234326-缝编号_enumerate.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [二重循环](./md/291-234327-二重循环.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [有规律的屏幕紊乱](./md/292-607977-有规律的屏幕紊乱.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [循环优化](./md/293-529781-循环优化.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [多重循环_水仙花数_四重循环_RGB遍历](./md/294-495417-多重循环_水仙花数_四重循环_RGB遍历.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [多重循环的优化_鸡兔同笼](./md/295-607978-多重循环的优化_鸡兔同笼.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [遍历文件流](./md/296-234372-遍历文件流.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [for 的总结](./md/297-253312-for 的总结.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [列表推导式_list_comprehension](./md/298-253313-列表推导式_list_comprehension.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [集合推导式_set_comprehension](./md/299-255133-集合推导式_set_comprehension.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [字典推导式_dict_comprehension](./md/300-255813-字典推导式_dict_comprehension.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [循环总结](./md/301-259389-循环总结.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [什么是函数](./md/302-529664-什么是函数.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [函数的调试与反编译](./md/303-529665-函数的调试与反编译.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [形参_parameter_与实参_argument](./md/304-529666-形参_parameter_与实参_argument.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [参数赋值](./md/305-529697-参数赋值.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [实参_arguement_为容器类型](./md/306-531675-实参_arguement_为容器类型.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [变量作用域_scope_与可见性_visiblity](./md/307-529957-变量作用域_scope_与可见性_visiblity.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [全局_global_变量声明](./md/308-529964-全局_global_变量声明.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [代码_code_对象_object](./md/309-547654-代码_code_对象_object.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [实参_arguement_为函数对象](./md/310-548436-实参_arguement_为函数对象.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [跨模块引用变量_namespace_的意义](./md/311-532629-跨模块引用变量_namespace_的意义.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [内建_builtins_模块研究](./md/312-547655-内建_builtins_模块研究.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [跨模块调用函数](./md/313-532714-跨模块调用函数.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [自定义模块_module](./md/314-536506-自定义模块_module.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [嵌套软件包_package](./md/315-542961-嵌套软件包_package.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [为自定义模块添加详细文档_pydoc](./md/316-540327-为自定义模块添加详细文档_pydoc.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [设置类库目录_PYTHONPATH](./md/317-532715-设置类库目录_PYTHONPATH.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [是否为主模块_name_main](./md/318-542737-是否为主模块_name_main.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [返回值_return_value_数据类型_返回值为空](./md/319-542954-返回值_return_value_数据类型_返回值为空.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [直接返回_电路短路_汇编理解_return_返回值](./md/320-848690-直接返回_电路短路_汇编理解_return_返回值.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [形式_formal_参数_parameter_列表_list](./md/321-542955-形式_formal_参数_parameter_列表_list.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [函数的重写_overwrite_与重载_overload](./md/322-562494-函数的重写_overwrite_与重载_overload.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [函数_function_嵌套_nested_调用_call](./md/323-542953-函数_function_嵌套_nested_调用_call.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [理解嵌套调用](./md/324-543327-理解嵌套调用.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [实参_argument_默认_default_值_values](./md/325-542965-实参_argument_默认_default_值_values.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [终端命令行实参解析_argparse](./md/326-542984-终端命令行实参解析_argparse.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [工业化流程_industrialization](./md/327-543289-工业化流程_industrialization.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [函数调用_call_栈_stack_中的帧_frame](./md/328-547656-函数调用_call_栈_stack_中的帧_frame.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [理解封装_encapsulation](./md/329-543599-理解封装_encapsulation.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [函数自身的嵌套调用](./md/330-543605-函数自身的嵌套调用.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [函数递归_recursion_调用](./md/331-543765-函数递归_recursion_调用.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [递归_recursive_调用_call_栈_stack_里的帧_frame](./md/332-547717-递归_recursive_调用_call_栈_stack_里的帧_frame.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [可视化函数调用_VizTracer](./md/333-544079-可视化函数调用_VizTracer.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [递归_recursion_vs_循环_loops](./md/334-544343-递归_recursion_vs_循环_loops.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [计时函数_timeit](./md/335-531617-计时函数_timeit.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [递归的优化_lru_cache](./md/336-547523-递归的优化_lru_cache.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [函数_function_的嵌套_nested_定义_definition](./md/337-547524-函数_function_的嵌套_nested_定义_definition.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [非局部变量_nonlocal](./md/338-547554-非局部变量_nonlocal.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [持续_continuous_集成_integration](./md/339-547560-持续_continuous_集成_integration.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [周易占卜算卦](./md/340-562522-周易占卜算卦.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [约数_factors_函数的分分合合](./md/341-543551-约数_factors_函数的分分合合.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [平方根_square_root](./md/342-547818-平方根_square_root.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [最大_greatest_公_common_约数_divisor_gcd](./md/343-548128-最大_greatest_公_common_约数_divisor_gcd.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [类型_type_提示_hint](./md/344-532713-类型_type_提示_hint.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [静态类型检查_mypy](./md/345-548429-静态类型检查_mypy.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [代码质量检测_pylint](./md/346-548470-代码质量检测_pylint.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [形参_formal_parameter_的分类](./md/347-554435-形参_formal_parameter_的分类.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [纯位置_position_only_形参_formal_parameter](./md/348-554891-纯位置_position_only_形参_formal_parameter.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [纯关键字_keyword_only_形参_formal_parameter](./md/349-562454-纯关键字_keyword_only_形参_formal_parameter.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [元组_tuple_作为参数](./md/350-562455-元组_tuple_作为参数.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [字典_dict_作为参数](./md/351-562480-字典_dict_作为参数.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [可迭代类容器参数总结_optional_parameter](./md/352-595618-可迭代类容器参数总结_optional_parameter.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [匿名函数_lambda](./md/353-562481-匿名函数_lambda.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [函数总结](./md/354-562560-函数总结.sy.md)</t>
+  </si>
+  <si>
+    <t>- python爬虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    - gopuppy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [安装和使用](./md/364-588299-安装和使用.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [flourish数据呈现](./md/365-588300-flourish数据呈现.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [浏览过程_请求request_响应_response](./md/366-192569-浏览过程_请求request_响应_response.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - request 和 lxml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [浏览过程_状态码_404_浏览器缓存_上次更新时间](./md/367-729811-浏览过程_状态码_404_浏览器缓存_上次更新时间.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [requests_模块](./md/368-192576-requests_模块.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [lxml_元素_树形结构](./md/369-192577-lxml_元素_树形结构.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [lxml_属性_索引_index_切片_遍历_iteratoration](./md/370-192598-lxml_属性_索引_index_切片_遍历_iteratoration.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [lxml_标签_tag_父子_兄弟_替换_深拷贝](./md/371-732317-lxml_标签_tag_父子_兄弟_替换_深拷贝.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [lxml_文本内容_text_尾巴_tail_属性](./md/372-192644-lxml_文本内容_text_尾巴_tail_属性.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [lxml_循环遍历_iteration_深度优先搜索](./md/373-192645-lxml_循环遍历_iteration_深度优先搜索.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [lxml_注释_Comment_实体_Entity](./md/374-757829-lxml_注释_Comment_实体_Entity.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [lxml_从字符串_str_生成_etree_Element_元素节点](./md/375-192646-lxml_从字符串_str_生成_etree_Element_元素节点.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [lxml_结合_requests_爬取过程_生成树](./md/376-193105-lxml_结合_requests_爬取过程_生成树.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [xpath_筛选元素_xpath_节点列表](./md/377-193139-xpath_筛选元素_xpath_节点列表.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [xpath_属性筛选_attrib_属性字典](./md/378-194109-xpath_属性筛选_attrib_属性字典.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [xpath_路径表达式_postion_last_索引下标_位置](./md/379-194111-xpath_路径表达式_postion_last_索引下标_位置.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [xpath_选择器练习_selector](./md/380-263198-xpath_选择器练习_selector.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [xpath_提取文本方法_text_string](./md/381-263197-xpath_提取文本方法_text_string.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [lxml_属性_attrib_attribute_字典_dict_遍历字典](./md/382-732853-lxml_属性_attrib_attribute_字典_dict_遍历字典.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [综合练习_爬取网站_oeasy_遍历链接](./md/383-194366-综合练习_爬取网站_oeasy_遍历链接.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [综合练习_遍历链接_内容入库](./md/384-194455-综合练习_遍历链接_内容入库.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [爬取热搜_遍历超链接_设置user_agent](./md/385-250373-爬取热搜_遍历超链接_设置user_agent.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [爬虫的概念_robots_txt_历史](./md/386-793090-爬虫的概念_robots_txt_历史.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [爬取图片_卫星云图_向日葵七号](./md/387-250391-爬取图片_卫星云图_向日葵七号.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [爬取图片进阶_纸飞机_wget](./md/388-252877-爬取图片进阶_纸飞机_wget.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [爬取图像数据_汉字源_甲骨文文字](./md/389-253240-爬取图像数据_汉字源_甲骨文文字.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [爬取异步数据_xhr_json_处理json](./md/390-792526-爬取异步数据_xhr_json_处理json.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - selenium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [安装环境](./md/391-564969-安装环境.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [爬取网页](./md/392-565019-爬取网页.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [填写表单](./md/393-565033-填写表单.sy.md)</t>
+  </si>
+  <si>
+    <t>- 数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    - psycopg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [psycopg3_从零开始_搭建环境](./md/394-802579-psycopg3_从零开始_搭建环境.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [建立连接_连接字符串_conninfo_用户名密码主机端口数据库名](./md/395-802590-建立连接_连接字符串_conninfo_用户名密码主机端口数据库名.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [执行sql语句_dml_create_table_INSERT_INTO](./md/396-802591-执行sql语句_dml_create_table_INSERT_INTO.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [SQL_SELECT语句_游标_数据查询](./md/397-826418-SQL_SELECT语句_游标_数据查询.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [数据库连接上下文_套路_关闭数据库连接](./md/398-802592-数据库连接上下文_套路_关闭数据库连接.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [参数传递_防止sql注入_injection](./md/399-802594-参数传递_防止sql注入_injection.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - sqlalchemy 核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [sqlalchemy_从零开始](./md/400-802589-sqlalchemy_从零开始.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [驱动起来_driver_sql](./md/401-802580-驱动起来_driver_sql.sy.md)</t>
+  </si>
+  <si>
+    <t>- pythonweb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    -flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [最小应用_搭建环境_外网访问_调试模式_动态加载py代码](./md/402-820493-最小应用_搭建环境_外网访问_调试模式_动态加载py代码.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [调试模式_将错误输出到日志](./md/403-826425-调试模式_将错误输出到日志.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [自定义装饰器_注册路由_路由映射_动态路由_url处理函数](./md/404-820494-自定义装饰器_注册路由_路由映射_动态路由_url处理函数.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [蓝图_动态分配路由_路由到不同的py文件](./md/405-820498-蓝图_动态分配路由_路由到不同的py文件.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [静态文件_渲染模板_模块](./md/406-820495-静态文件_渲染模板_模块.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [前端和后端_front_end_backend_webapplication_架构](./md/407-826427-前端和后端_front_end_backend_webapplication_架构.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [双层架构(2-tier)](./md/408-826428-双层架构(2-tier).sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [前后端_分别计算_1到100](./md/409-826429-前后端_分别计算_1到100.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [前后端动态计算_从1加到n](./md/410-853588-前后端动态计算_从1加到n.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [请求_request_响应_response](./md/411-826430-请求_request_响应_response.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [请求参数_request_parameter](./md/412-826431-请求参数_request_parameter.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [处理异常信息_预判_数据类型处理](./md/413-826432-处理异常信息_预判_数据类型处理.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [提交表单_method_提交方法_POST_GET_跳转](./md/414-820496-提交表单_method_提交方法_POST_GET_跳转.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [网页模版_render_template](./md/415-826426-网页模版_render_template.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [模版继承关系_基础模版_父子模版_templates](./md/416-832646-模版继承关系_基础模版_父子模版_templates.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [连接数据库_postgres_psycopg_数据库连接](./md/417-820497-连接数据库_postgres_psycopg_数据库连接.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [用户注册_regist_Insert_INTO_向数据库插入数据](./md/418-820499-用户注册_regist_Insert_INTO_向数据库插入数据.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [数据库连接池_数据库连接类_ConnectionPool](./md/419-820501-数据库连接池_数据库连接类_ConnectionPool.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [用户登录_user_login_logon](./md/420-820502-用户登录_user_login_logon.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [cookie_小数据_保存cookie_读取cookie](./md/421-838947-cookie_小数据_保存cookie_读取cookie.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [会话_session_保持登录状态_过期时间_PERMANENT_SESSION_LIFETIME](./md/422-838896-会话_session_保持登录状态_过期时间_PERMANENT_SESSION_LIFETIME.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [cookie_保持登录状态_保持session_session断开时间](./md/423-820503-cookie_保持登录状态_保持session_session断开时间.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [动态分配子路由_蓝图_blueprint_将用户管理封装到user模块](./md/424-826239-动态分配子路由_蓝图_blueprint_将用户管理封装到user模块.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [删除数据库记录_DELETE_FROM_删除登录人](./md/425-820504-删除数据库记录_DELETE_FROM_删除登录人.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [批量删除数据_复选框_chechbox](./md/426-839123-批量删除数据_复选框_chechbox.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [集成_注册用户_网页模版](./md/427-841664-集成_注册用户_网页模版.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [更新数据库记录_UPDATE_SET_更新用户数据](./md/428-820505-更新数据库记录_UPDATE_SET_更新用户数据.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [搜索数据库记录_Search_SELECT](./md/429-820843-搜索数据库记录_Search_SELECT.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [搜索记录的排序_ordered_by_ASC_DESC_升序_降序](./md/430-820844-搜索记录的排序_ordered_by_ASC_DESC_升序_降序.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [批量添加用户_add_users](./md/431-820845-批量添加用户_add_users.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [分页显示设置_page_limit_offset](./md/432-820846-分页显示设置_page_limit_offset.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [分页功能细化调整](./md/433-820972-分页功能细化调整.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [每页记录数量设置_page_size](./md/434-820978-每页记录数量设置_page_size.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [ajax异步访问技术](./md/435-853506-ajax异步访问技术.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - fastapi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [安装与运行](./md/436-578055-安装与运行.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [fastapi名字来历](./md/437-578056-fastapi名字来历.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [请求的方法](./md/438-583379-请求的方法.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [代码整体分析](./md/439-583380-代码整体分析.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [路径参数_Path_Parameter](./md/440-583381-路径参数_Path_Parameter.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [查询参数_Query_Parameter](./md/441-588325-查询参数_Query_Parameter.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [请求体_request_body](./md/442-588329-请求体_request_body.sy.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - [查询参数和字符串校验](./md/443-589959-查询参数和字符串校验.sy.md)</t>
   </si>
 </sst>
 </file>
@@ -3108,7 +4246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E93E4B-33EF-9647-B2DB-B6750D1537C4}">
   <dimension ref="D6:J475"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="B64" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="E7" sqref="E7:J7"/>
     </sheetView>
   </sheetViews>
@@ -16586,23 +17724,23 @@
         <v>464</v>
       </c>
       <c r="E471" t="e">
-        <f t="shared" ref="E456:E475" si="48">FIND("-",D471,6)</f>
+        <f t="shared" ref="E471:E475" si="48">FIND("-",D471,6)</f>
         <v>#VALUE!</v>
       </c>
       <c r="F471" t="e">
-        <f t="shared" ref="F456:F475" si="49">FIND(".sy.md",D471)</f>
+        <f t="shared" ref="F471:F475" si="49">FIND(".sy.md",D471)</f>
         <v>#VALUE!</v>
       </c>
       <c r="G471">
-        <f t="shared" ref="G456:G475" si="50">LEN(D471)</f>
+        <f t="shared" ref="G471:G475" si="50">LEN(D471)</f>
         <v>9</v>
       </c>
       <c r="H471" t="str">
-        <f t="shared" ref="H456:H475" si="51">LEFT(D471,G471-6)</f>
+        <f t="shared" ref="H471:H475" si="51">LEFT(D471,G471-6)</f>
         <v>REA</v>
       </c>
       <c r="I471" t="e">
-        <f t="shared" ref="I456:I475" si="52">RIGHT(H471,LEN(H471)-E471)</f>
+        <f t="shared" ref="I471:I475" si="52">RIGHT(H471,LEN(H471)-E471)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -16717,7 +17855,7 @@
   <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -24434,7 +25572,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G134"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26364,10 +27502,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9057B1A-82C1-A04C-86B9-1125F591AAAD}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:A458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="239" zoomScaleNormal="239" workbookViewId="0">
-      <selection activeCell="A74" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A444" zoomScale="239" zoomScaleNormal="239" workbookViewId="0">
+      <selection activeCell="C449" sqref="C449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26377,433 +27515,2292 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>841</v>
+        <v>794</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>842</v>
+        <v>795</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>708</v>
+        <v>836</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>793</v>
+        <v>837</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>843</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>844</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>845</v>
+        <v>798</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>846</v>
+        <v>799</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>847</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>848</v>
+        <v>801</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>849</v>
+        <v>802</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>850</v>
+        <v>803</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>851</v>
+        <v>804</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>852</v>
+        <v>805</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>867</v>
-      </c>
-      <c r="H31" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>868</v>
+        <v>822</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>869</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>795</v>
+      <c r="A34" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>870</v>
+        <v>825</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>871</v>
+        <v>826</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>872</v>
+        <v>827</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>873</v>
+        <v>828</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>874</v>
+        <v>829</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
-        <v>805</v>
+      <c r="A40" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
-        <v>796</v>
+      <c r="A41" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
-        <v>797</v>
+      <c r="A42" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>798</v>
+      <c r="A43" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>799</v>
+      <c r="A44" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>800</v>
+      <c r="A45" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>801</v>
+        <v>838</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>802</v>
+      <c r="A47" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
-        <v>802</v>
+      <c r="A48" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>806</v>
+      <c r="A49" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>803</v>
+      <c r="A50" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>875</v>
+        <v>843</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>807</v>
+      <c r="A52" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>804</v>
+      <c r="A53" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>808</v>
+        <v>846</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>809</v>
+        <v>847</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
-        <v>839</v>
+      <c r="A56" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>810</v>
+        <v>849</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>811</v>
+        <v>850</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>812</v>
+        <v>851</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>813</v>
+        <v>852</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>814</v>
+        <v>853</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>815</v>
+        <v>854</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>816</v>
+        <v>855</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>822</v>
-      </c>
-      <c r="H69" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>833</v>
+        <v>872</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>834</v>
+        <v>873</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>835</v>
+        <v>874</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>836</v>
+        <v>875</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>837</v>
+        <v>876</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>838</v>
+        <v>877</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="1" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="1" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" t="s">
+        <v>1249</v>
       </c>
     </row>
   </sheetData>
